--- a/doc/Algoritmos erroneos.xlsx
+++ b/doc/Algoritmos erroneos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Comentario" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Decision_Trees</t>
   </si>
@@ -161,12 +161,6 @@
     <t>Event Covering</t>
   </si>
   <si>
-    <t>Clas-SLIQ</t>
-  </si>
-  <si>
-    <t>Decision Trees</t>
-  </si>
-  <si>
     <t>Genetic Rule Learning</t>
   </si>
   <si>
@@ -176,12 +170,6 @@
     <t>Clas-CORE</t>
   </si>
   <si>
-    <t>Clas-DMEL</t>
-  </si>
-  <si>
-    <t>Clas-GIL</t>
-  </si>
-  <si>
     <t>Clas-ILGA</t>
   </si>
   <si>
@@ -192,12 +180,6 @@
   </si>
   <si>
     <t>Clas-ART</t>
-  </si>
-  <si>
-    <t>Clas-DataSqueezer</t>
-  </si>
-  <si>
-    <t>Clas-Swap1</t>
   </si>
   <si>
     <t>DT-GA</t>
@@ -573,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -598,17 +580,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -634,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -687,7 +669,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -717,18 +699,18 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -758,7 +740,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="B37" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -829,27 +811,27 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" customHeight="1">
       <c r="B52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" customHeight="1">
       <c r="B53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="B54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -902,77 +884,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B17"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" t="s">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Algoritmos erroneos.xlsx
+++ b/doc/Algoritmos erroneos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Comentario" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Decision_Trees</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Instance Generation</t>
-  </si>
-  <si>
-    <t>Instance Selection</t>
   </si>
   <si>
     <t>Missing Values</t>
@@ -553,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -580,17 +577,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -616,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -639,240 +636,230 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="19" spans="1:5">
-      <c r="C19" t="s">
-        <v>23</v>
+      <c r="A19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="C20" t="s">
-        <v>24</v>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="C21" t="s">
-        <v>25</v>
+      <c r="B21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>3</v>
+      <c r="B22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="B36" t="s">
-        <v>37</v>
+      <c r="A36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" t="s">
-        <v>39</v>
+      <c r="A38" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>4</v>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>5</v>
+      <c r="C41" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="B44" t="s">
-        <v>42</v>
+      <c r="C44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="C45" t="s">
-        <v>43</v>
+      <c r="A45" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" customHeight="1">
       <c r="B47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" customHeight="1">
       <c r="B48" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="C49" t="s">
-        <v>47</v>
+      <c r="B49" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" customHeight="1">
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="B53" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="B54" t="s">
-        <v>68</v>
+      <c r="A54" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>6</v>
+      <c r="B55" t="s">
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s">
         <v>12</v>
       </c>
     </row>
@@ -886,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -894,37 +881,37 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
